--- a/FASTV2.xlsx
+++ b/FASTV2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -822,14 +822,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR"/>
+            <a:rPr lang="fr-FR" sz="1200"/>
             <a:t>FP : Permettre à l'utilisateur d'intéragir avec l'interface via ses yeux</a:t>
           </a:r>
         </a:p>
@@ -858,7 +858,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -866,10 +866,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP1 : Acquérir les données  nécessaires à la détection du mouvement de l'oeil</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -896,7 +896,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{30FE5FD2-03E7-C142-AA91-76709434DD90}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr>
         <a:solidFill>
           <a:srgbClr val="EEECE1"/>
@@ -907,14 +907,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP13 : Acquérir les données nécessaires à l'estimation de la distance de l'utilisateur à l'interface</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR">
+          <a:endParaRPr lang="fr-FR" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -945,17 +945,17 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8F5969EE-F8BE-0348-8A1D-523AF7ADC449}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP11 : Positionner l'utilisateur pour l'acquisition vidéo</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -982,7 +982,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr>
         <a:solidFill>
           <a:schemeClr val="bg2"/>
@@ -993,14 +993,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP2 : Transférer les données enregistrées</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR">
+          <a:endParaRPr lang="fr-FR" sz="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1031,17 +1031,17 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{36BBC7EB-D363-3B48-8496-AA60D47185CD}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP12 : Filmer le visage de l'utilisateur</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="fr-FR" sz="1200"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1068,7 +1068,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CBD00C11-7705-4B46-A507-504E11D7B2C4}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr>
         <a:solidFill>
           <a:srgbClr val="EEECE1"/>
@@ -1079,14 +1079,14 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP22 : Transmettre le signal compressé</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR">
+          <a:endParaRPr lang="fr-FR" sz="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1117,7 +1117,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A8AC0743-8DDE-2742-BA27-AC8B8ED11478}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr>
         <a:solidFill>
           <a:srgbClr val="EEECE1"/>
@@ -1128,7 +1128,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1161,14 +1161,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EB608E93-0479-2148-BCC1-5BA22B50A826}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP5 : Agir sur l'IHM</a:t>
           </a:r>
         </a:p>
@@ -1197,14 +1197,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8A21709E-6FE0-0845-AA28-2B8FCDAA188E}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP51 : Effectuer l'action</a:t>
           </a:r>
         </a:p>
@@ -1233,14 +1233,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP52 : Rendre l'action visible sur l'interface</a:t>
           </a:r>
         </a:p>
@@ -1269,14 +1269,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C762D9DC-C267-9446-B1CC-A95E3114C015}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR"/>
+            <a:rPr lang="fr-FR" sz="1200"/>
             <a:t>FP31 : Détecter l'utilisateur et ses mouvements</a:t>
           </a:r>
         </a:p>
@@ -1305,14 +1305,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{652DE9CE-379E-5542-8267-C153E850CFF5}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP4 : Interpréter les données pour déduire l'action à exécuter</a:t>
           </a:r>
         </a:p>
@@ -1341,14 +1341,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6DC6F20A-841D-E944-B9FD-E1D140F60C2C}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP41 : Analyser le mouvement de la pupille à l'aide de la distance utilisateur-IHM</a:t>
           </a:r>
         </a:p>
@@ -1377,14 +1377,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" b="0" i="0" u="none"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
             <a:t>FP42 : Déduire l'action à effectuer</a:t>
           </a:r>
         </a:p>
@@ -1413,14 +1413,14 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{926B028B-C02D-2C41-A736-4D3D57E074CC}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR"/>
+            <a:rPr lang="fr-FR" sz="1200"/>
             <a:t>FP3 : Traiter les données enregistrées</a:t>
           </a:r>
         </a:p>
@@ -1449,7 +1449,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}">
-      <dgm:prSet phldrT="[Texte]"/>
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
       <dgm:spPr>
         <a:solidFill>
           <a:srgbClr val="EEECE1"/>
@@ -1460,7 +1460,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR">
+            <a:rPr lang="fr-FR" sz="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1516,7 +1516,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{61D69160-A7CD-9049-954F-FA5CBF774AED}" type="pres">
-      <dgm:prSet presAssocID="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1561,7 +1561,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{02E0FECA-2589-C94E-8421-1373276E6CD0}" type="pres">
-      <dgm:prSet presAssocID="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1606,7 +1606,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ED82EB34-8097-994C-90F2-D4621919418A}" type="pres">
-      <dgm:prSet presAssocID="{8F5969EE-F8BE-0348-8A1D-523AF7ADC449}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{8F5969EE-F8BE-0348-8A1D-523AF7ADC449}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1651,7 +1651,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E51D9155-7752-9D41-957A-949CC75EB761}" type="pres">
-      <dgm:prSet presAssocID="{36BBC7EB-D363-3B48-8496-AA60D47185CD}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{36BBC7EB-D363-3B48-8496-AA60D47185CD}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1696,7 +1696,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{22159CD9-4EC1-E544-98E6-9AD9F99F03AF}" type="pres">
-      <dgm:prSet presAssocID="{30FE5FD2-03E7-C142-AA91-76709434DD90}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{30FE5FD2-03E7-C142-AA91-76709434DD90}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="11" custScaleX="96260" custScaleY="75821">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1741,7 +1741,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B895C344-133F-4340-80A0-685E27E999D6}" type="pres">
-      <dgm:prSet presAssocID="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1786,7 +1786,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E1F7CC9B-4F56-D943-B145-A3DE9F98BD43}" type="pres">
-      <dgm:prSet presAssocID="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1831,7 +1831,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D0686948-65B5-CE4B-99C1-9EB45F62AC5F}" type="pres">
-      <dgm:prSet presAssocID="{CBD00C11-7705-4B46-A507-504E11D7B2C4}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{CBD00C11-7705-4B46-A507-504E11D7B2C4}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1876,7 +1876,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5535553B-E6DF-DC40-BCE3-AA88C7E8EDAF}" type="pres">
-      <dgm:prSet presAssocID="{926B028B-C02D-2C41-A736-4D3D57E074CC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{926B028B-C02D-2C41-A736-4D3D57E074CC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1921,7 +1921,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C6AA8951-971D-8D46-A6B7-A3287247CC64}" type="pres">
-      <dgm:prSet presAssocID="{C762D9DC-C267-9446-B1CC-A95E3114C015}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{C762D9DC-C267-9446-B1CC-A95E3114C015}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1966,7 +1966,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2A221514-4A03-4B45-B5AF-749FB8232375}" type="pres">
-      <dgm:prSet presAssocID="{A8AC0743-8DDE-2742-BA27-AC8B8ED11478}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{A8AC0743-8DDE-2742-BA27-AC8B8ED11478}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2011,7 +2011,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F9CE8C8D-1F59-A546-857D-5DCA77549F01}" type="pres">
-      <dgm:prSet presAssocID="{652DE9CE-379E-5542-8267-C153E850CFF5}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{652DE9CE-379E-5542-8267-C153E850CFF5}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2056,7 +2056,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DFF22F0D-7EB3-DB46-B99E-239BB764C2DC}" type="pres">
-      <dgm:prSet presAssocID="{6DC6F20A-841D-E944-B9FD-E1D140F60C2C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{6DC6F20A-841D-E944-B9FD-E1D140F60C2C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="11" custScaleX="96260" custScaleY="75837">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2101,7 +2101,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0963A656-C5DC-AB41-8DEE-D65A14EA566F}" type="pres">
-      <dgm:prSet presAssocID="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2146,7 +2146,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{53EE5430-A405-0C45-8C3D-56B9B7B4C5EE}" type="pres">
-      <dgm:prSet presAssocID="{EB608E93-0479-2148-BCC1-5BA22B50A826}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{EB608E93-0479-2148-BCC1-5BA22B50A826}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2191,7 +2191,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8F0E1068-96D7-094C-A746-F91F87169C20}" type="pres">
-      <dgm:prSet presAssocID="{8A21709E-6FE0-0845-AA28-2B8FCDAA188E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="11" custScaleX="96260" custScaleY="46205">
+      <dgm:prSet presAssocID="{8A21709E-6FE0-0845-AA28-2B8FCDAA188E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2236,7 +2236,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8DA6C1C2-E0BE-DE44-8DDE-6C55EBB1BE40}" type="pres">
-      <dgm:prSet presAssocID="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="11" custScaleX="96680" custScaleY="46205">
+      <dgm:prSet presAssocID="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="11" custScaleX="96680" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2432,8 +2432,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4357" y="3651258"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="1369" y="4697378"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2493,12 +2493,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2510,14 +2510,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" kern="1200"/>
             <a:t>FP : Permettre à l'utilisateur d'intéragir avec l'interface via ses yeux</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="17207" y="3664108"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="19327" y="4715336"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1AEC4C7F-8B5D-9C4A-A0BA-DF9BE251EB21}">
@@ -2526,9 +2526,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17225713">
-          <a:off x="920147" y="2624196"/>
-          <a:ext cx="2584083" cy="22939"/>
+        <a:xfrm rot="16980372">
+          <a:off x="522026" y="3349279"/>
+          <a:ext cx="3378114" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2539,10 +2539,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2584083" y="11469"/>
+                <a:pt x="3378114" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2580,7 +2580,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2591,12 +2591,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="700" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2147587" y="2571064"/>
-        <a:ext cx="129204" cy="129204"/>
+        <a:off x="2126630" y="3273758"/>
+        <a:ext cx="168905" cy="168905"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02E0FECA-2589-C94E-8421-1373276E6CD0}">
@@ -2606,8 +2606,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591998" y="1181346"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="2591216" y="1405927"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2667,12 +2667,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2684,15 +2684,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP1 : Acquérir les données  nécessaires à la détection du mouvement de l'oeil</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2604848" y="1194196"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="2609174" y="1423885"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E51D49A7-6AFC-F04F-9B53-612EDC5C173D}">
@@ -2701,9 +2701,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19354905">
-          <a:off x="4321614" y="1098662"/>
-          <a:ext cx="956432" cy="22939"/>
+        <a:xfrm rot="18792460">
+          <a:off x="4245703" y="1298861"/>
+          <a:ext cx="1110453" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2714,10 +2714,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="956432" y="11469"/>
+                <a:pt x="1110453" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2770,8 +2770,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4775919" y="1086221"/>
-        <a:ext cx="47821" cy="47821"/>
+        <a:off x="4773168" y="1280032"/>
+        <a:ext cx="55522" cy="55522"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ED82EB34-8097-994C-90F2-D4621919418A}">
@@ -2781,8 +2781,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="600190"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="596543"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2842,12 +2842,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2859,15 +2859,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP11 : Positionner l'utilisateur pour l'acquisition vidéo</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="613040"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199021" y="614501"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{97838F66-388F-334E-8C48-6883CD119D60}">
@@ -2876,9 +2876,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm>
-          <a:off x="4420021" y="1389240"/>
-          <a:ext cx="759618" cy="22939"/>
+        <a:xfrm rot="21357505">
+          <a:off x="4419849" y="1676694"/>
+          <a:ext cx="762161" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2889,10 +2889,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="759618" y="11469"/>
+                <a:pt x="762161" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2945,8 +2945,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4780840" y="1381719"/>
-        <a:ext cx="37980" cy="37980"/>
+        <a:off x="4781875" y="1666572"/>
+        <a:ext cx="38108" cy="38108"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E51D9155-7752-9D41-957A-949CC75EB761}">
@@ -2956,8 +2956,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="1181346"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="1352209"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3017,12 +3017,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3034,15 +3034,15 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP12 : Filmer le visage de l'utilisateur</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="1194196"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199021" y="1370167"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6880828A-3410-E644-A3C4-2294177CC41C}">
@@ -3051,9 +3051,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2245095">
-          <a:off x="4321614" y="1679818"/>
-          <a:ext cx="956432" cy="22939"/>
+        <a:xfrm rot="2689569">
+          <a:off x="4264964" y="2081387"/>
+          <a:ext cx="1071931" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3064,10 +3064,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="956432" y="11469"/>
+                <a:pt x="1071931" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3120,8 +3120,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4775919" y="1667377"/>
-        <a:ext cx="47821" cy="47821"/>
+        <a:off x="4774131" y="2063520"/>
+        <a:ext cx="53596" cy="53596"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{22159CD9-4EC1-E544-98E6-9AD9F99F03AF}">
@@ -3131,8 +3131,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="1762502"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="2107876"/>
+          <a:ext cx="1829580" cy="720551"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3168,12 +3168,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3185,14 +3185,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP13 : Acquérir les données nécessaires à l'estimation de la distance de l'utilisateur à l'interface</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200">
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3200,8 +3200,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="1775352"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5202167" y="2128980"/>
+        <a:ext cx="1787372" cy="678343"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9214EDCC-7637-FA4F-A663-9416C90A1781}">
@@ -3210,9 +3210,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="18405373">
-          <a:off x="1577493" y="3350641"/>
-          <a:ext cx="1269391" cy="22939"/>
+        <a:xfrm rot="17964750">
+          <a:off x="1437029" y="4320721"/>
+          <a:ext cx="1548107" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3223,10 +3223,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1269391" y="11469"/>
+                <a:pt x="1548107" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3279,8 +3279,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2180454" y="3330376"/>
-        <a:ext cx="63469" cy="63469"/>
+        <a:off x="2172380" y="4290950"/>
+        <a:ext cx="77405" cy="77405"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B895C344-133F-4340-80A0-685E27E999D6}">
@@ -3290,8 +3290,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591998" y="2634236"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="2591216" y="3348811"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3327,12 +3327,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3344,14 +3344,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP2 : Transférer les données enregistrées</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200">
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3359,8 +3359,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2604848" y="2647086"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="2609174" y="3366769"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2DDF5D0C-86F9-B544-9080-3A948622D7BA}">
@@ -3369,9 +3369,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="20343995">
-          <a:off x="4393180" y="2696841"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="20014426">
+          <a:off x="4376441" y="3457521"/>
+          <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3382,10 +3382,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848977" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3438,8 +3438,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="2687978"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779705" y="3445228"/>
+        <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E1F7CC9B-4F56-D943-B145-A3DE9F98BD43}">
@@ -3449,8 +3449,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="2343658"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="2970977"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3486,12 +3486,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3503,7 +3503,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" kern="1200">
+            <a:rPr lang="fr-FR" sz="1200" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3513,8 +3513,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="2356508"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199021" y="2988935"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F07A7E6F-36EA-9743-8C2B-402848A63CFF}">
@@ -3523,9 +3523,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="1256005">
-          <a:off x="4393180" y="2987418"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="1585574">
+          <a:off x="4376441" y="3835354"/>
+          <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3536,10 +3536,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848977" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3592,8 +3592,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="2978556"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779705" y="3823061"/>
+        <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D0686948-65B5-CE4B-99C1-9EB45F62AC5F}">
@@ -3603,8 +3603,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="2924813"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="3726644"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3640,12 +3640,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3657,14 +3657,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>FP22 : Transmettre le signal compressé</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="900" kern="1200">
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -3672,8 +3672,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="2937663"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199021" y="3744602"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{31147925-D93C-6548-8EDD-2EE2D7639E17}">
@@ -3682,9 +3682,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="649676">
-          <a:off x="1825495" y="3931797"/>
-          <a:ext cx="773388" cy="22939"/>
+        <a:xfrm rot="723914">
+          <a:off x="1822363" y="5076257"/>
+          <a:ext cx="777439" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3695,10 +3695,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="773388" y="11469"/>
+                <a:pt x="777439" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3751,8 +3751,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2192854" y="3923932"/>
-        <a:ext cx="38669" cy="38669"/>
+        <a:off x="2191647" y="5065753"/>
+        <a:ext cx="38871" cy="38871"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5535553B-E6DF-DC40-BCE3-AA88C7E8EDAF}">
@@ -3762,8 +3762,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591998" y="3796547"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="2591216" y="4859882"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3823,12 +3823,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3840,14 +3840,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" kern="1200"/>
             <a:t>FP3 : Traiter les données enregistrées</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2604848" y="3809397"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="2609174" y="4877840"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{36D788C9-8DB5-D74D-BDE6-649BA5A5D5B8}">
@@ -3856,9 +3856,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="20343995">
-          <a:off x="4393180" y="3859152"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="20015374">
+          <a:off x="4376499" y="4968723"/>
+          <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3869,10 +3869,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848861" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3925,8 +3925,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="3850289"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779708" y="4956433"/>
+        <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C6AA8951-971D-8D46-A6B7-A3287247CC64}">
@@ -3936,8 +3936,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="3505969"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="4482311"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3997,12 +3997,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4014,14 +4014,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" kern="1200"/>
             <a:t>FP31 : Détecter l'utilisateur et ses mouvements</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="3518819"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199021" y="4500269"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{199187A2-043D-8540-A3D5-F92622E95501}">
@@ -4030,9 +4030,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="1256005">
-          <a:off x="4393180" y="4149730"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="1585574">
+          <a:off x="4376441" y="5346426"/>
+          <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4043,10 +4043,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848977" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4099,8 +4099,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="4140867"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779705" y="5334133"/>
+        <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2A221514-4A03-4B45-B5AF-749FB8232375}">
@@ -4110,8 +4110,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="4087125"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="5237977"/>
+          <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4147,12 +4147,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4164,7 +4164,7 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200">
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4174,8 +4174,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="4099975"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199005" y="5255919"/>
+        <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{622176D4-0F63-4441-9655-4E39F2D4E064}">
@@ -4184,9 +4184,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3590796">
-          <a:off x="1456074" y="4512953"/>
-          <a:ext cx="1512230" cy="22939"/>
+        <a:xfrm rot="3974466">
+          <a:off x="1267564" y="5858559"/>
+          <a:ext cx="1887036" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4197,10 +4197,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1512230" y="11469"/>
+                <a:pt x="1887036" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4238,7 +4238,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4249,12 +4249,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2174383" y="4486617"/>
-        <a:ext cx="75611" cy="75611"/>
+        <a:off x="2163907" y="5820315"/>
+        <a:ext cx="94351" cy="94351"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F9CE8C8D-1F59-A546-857D-5DCA77549F01}">
@@ -4264,8 +4264,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591998" y="4958859"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="2591216" y="6424486"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4325,12 +4325,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4342,14 +4342,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP4 : Interpréter les données pour déduire l'action à exécuter</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2604848" y="4971709"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="2609174" y="6442444"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EC671750-0F9F-144E-B9B1-0F71732606F0}">
@@ -4358,9 +4358,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="20343995">
-          <a:off x="4393180" y="5021464"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="20015374">
+          <a:off x="4376499" y="6533327"/>
+          <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4371,10 +4371,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848861" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4427,8 +4427,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="5012601"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779708" y="6521037"/>
+        <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DFF22F0D-7EB3-DB46-B99E-239BB764C2DC}">
@@ -4438,8 +4438,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="4668281"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="5993121"/>
+          <a:ext cx="1829580" cy="720703"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4499,12 +4499,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4516,14 +4516,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP41 : Analyser le mouvement de la pupille à l'aide de la distance utilisateur-IHM</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="4681131"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5202172" y="6014230"/>
+        <a:ext cx="1787362" cy="678485"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9FA40A36-B6C2-5140-97C1-947018A2B70F}">
@@ -4532,9 +4532,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="1256005">
-          <a:off x="4393180" y="5312042"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="1775096">
+          <a:off x="4363806" y="6937926"/>
+          <a:ext cx="874246" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4545,10 +4545,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="874246" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4601,8 +4601,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="5303179"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779073" y="6925002"/>
+        <a:ext cx="43712" cy="43712"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0963A656-C5DC-AB41-8DEE-D65A14EA566F}">
@@ -4612,8 +4612,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="5249437"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="6856375"/>
+          <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4673,12 +4673,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4690,14 +4690,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP42 : Déduire l'action à effectuer</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="5262287"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199005" y="6874317"/>
+        <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F2B8E9EC-9E8D-EF4F-8069-8CF8FD8833B2}">
@@ -4706,9 +4706,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4374287">
-          <a:off x="920147" y="5094108"/>
-          <a:ext cx="2584083" cy="22939"/>
+        <a:xfrm rot="4619628">
+          <a:off x="522026" y="6640730"/>
+          <a:ext cx="3378114" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4719,10 +4719,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2584083" y="11469"/>
+                <a:pt x="3378114" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4760,7 +4760,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4771,12 +4771,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="700" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2147587" y="5040976"/>
-        <a:ext cx="129204" cy="129204"/>
+        <a:off x="2126630" y="6565209"/>
+        <a:ext cx="168905" cy="168905"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53EE5430-A405-0C45-8C3D-56B9B7B4C5EE}">
@@ -4786,8 +4786,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591998" y="6121171"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="2591216" y="7988829"/>
+          <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4847,12 +4847,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4864,14 +4864,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP5 : Agir sur l'IHM</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2604848" y="6134021"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="2609174" y="8006787"/>
+        <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CF5C0BC9-1C55-6D44-9740-9A1957FD4485}">
@@ -4880,9 +4880,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="20343995">
-          <a:off x="4393180" y="6183776"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="20015374">
+          <a:off x="4376499" y="8097670"/>
+          <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4893,10 +4893,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848861" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4949,8 +4949,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="6174913"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779708" y="8085380"/>
+        <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8F0E1068-96D7-094C-A746-F91F87169C20}">
@@ -4960,8 +4960,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="5830593"/>
-          <a:ext cx="1828022" cy="438727"/>
+          <a:off x="5181063" y="7611518"/>
+          <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5021,12 +5021,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5038,14 +5038,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP51 : Effectuer l'action</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="5843443"/>
-        <a:ext cx="1802322" cy="413027"/>
+        <a:off x="5199005" y="7629460"/>
+        <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{48799966-5966-574A-BC3A-266F4C6BAF17}">
@@ -5054,9 +5054,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="1256005">
-          <a:off x="4393180" y="6474354"/>
-          <a:ext cx="813299" cy="22939"/>
+        <a:xfrm rot="1584626">
+          <a:off x="4376499" y="8475241"/>
+          <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5067,10 +5067,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="11469"/>
+                <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="813299" y="11469"/>
+                <a:pt x="848861" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5123,8 +5123,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779498" y="6465491"/>
-        <a:ext cx="40664" cy="40664"/>
+        <a:off x="4779708" y="8462952"/>
+        <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8DA6C1C2-E0BE-DE44-8DDE-6C55EBB1BE40}">
@@ -5134,8 +5134,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5179640" y="6411749"/>
-          <a:ext cx="1835998" cy="438727"/>
+          <a:off x="5181063" y="8366662"/>
+          <a:ext cx="1837563" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5195,12 +5195,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5212,14 +5212,14 @@
             </a:spcAft>
           </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="900" b="0" i="0" u="none" kern="1200"/>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
             <a:t>FP52 : Rendre l'action visible sur l'interface</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5192490" y="6424599"/>
-        <a:ext cx="1810298" cy="413027"/>
+        <a:off x="5199005" y="8384604"/>
+        <a:ext cx="1801679" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6592,8 +6592,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>822398</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6940,7 +6940,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/FASTV2.xlsx
+++ b/FASTV2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-6500" yWindow="0" windowWidth="33100" windowHeight="12980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1421,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200"/>
-            <a:t>FP3 : Traiter les données enregistrées</a:t>
+            <a:t>FP3 : Extraire les repères anatomiques</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -3841,7 +3841,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="fr-FR" sz="1200" kern="1200"/>
-            <a:t>FP3 : Traiter les données enregistrées</a:t>
+            <a:t>FP3 : Extraire les repères anatomiques</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
@@ -6939,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/FASTV2.xlsx
+++ b/FASTV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6500" yWindow="0" windowWidth="33100" windowHeight="12980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1492,6 +1492,83 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}">
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
+            <a:t>FP6 : Rendre l'IHM ergonomique</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" type="parTrans" cxnId="{5D9A1395-AD14-7C4D-B100-F7C3F1371D17}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E66CAC7-00AD-0048-AE3F-048D6F288EF1}" type="sibTrans" cxnId="{5D9A1395-AD14-7C4D-B100-F7C3F1371D17}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{103D1626-783F-FD45-A7BB-A522A3FA7C26}">
+      <dgm:prSet phldrT="[Texte]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
+            <a:t>FP61 : Rendre l'IHM adaptée au contr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
+            <a:t>ôle via le gaze-tracking</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" type="parTrans" cxnId="{C0E82623-549A-FC44-865F-A392C7A2617E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AE895D96-157A-E242-A548-2A14F7F0F078}" type="sibTrans" cxnId="{C0E82623-549A-FC44-865F-A392C7A2617E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{E462CEA6-69E8-2346-9B02-3EDF954B7021}" type="pres">
       <dgm:prSet presAssocID="{6C230476-3D0D-474F-94E9-0E58DDAF8AF5}" presName="diagram" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -1535,7 +1612,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1AEC4C7F-8B5D-9C4A-A0BA-DF9BE251EB21}" type="pres">
-      <dgm:prSet presAssocID="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1546,7 +1623,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2680328F-7469-384B-A713-47DAA1730724}" type="pres">
-      <dgm:prSet presAssocID="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1561,7 +1638,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{02E0FECA-2589-C94E-8421-1373276E6CD0}" type="pres">
-      <dgm:prSet presAssocID="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1580,7 +1657,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E51D49A7-6AFC-F04F-9B53-612EDC5C173D}" type="pres">
-      <dgm:prSet presAssocID="{63E4C9E5-BCE9-274B-B154-D1722539B787}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{63E4C9E5-BCE9-274B-B154-D1722539B787}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1591,7 +1668,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EC1947AE-4E19-6545-8360-1E46FEF87CE8}" type="pres">
-      <dgm:prSet presAssocID="{63E4C9E5-BCE9-274B-B154-D1722539B787}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{63E4C9E5-BCE9-274B-B154-D1722539B787}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1606,7 +1683,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ED82EB34-8097-994C-90F2-D4621919418A}" type="pres">
-      <dgm:prSet presAssocID="{8F5969EE-F8BE-0348-8A1D-523AF7ADC449}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{8F5969EE-F8BE-0348-8A1D-523AF7ADC449}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="12" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1625,7 +1702,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{97838F66-388F-334E-8C48-6883CD119D60}" type="pres">
-      <dgm:prSet presAssocID="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1636,7 +1713,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6089D488-F8D0-3F43-80B5-219C7DCFB589}" type="pres">
-      <dgm:prSet presAssocID="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1651,7 +1728,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E51D9155-7752-9D41-957A-949CC75EB761}" type="pres">
-      <dgm:prSet presAssocID="{36BBC7EB-D363-3B48-8496-AA60D47185CD}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{36BBC7EB-D363-3B48-8496-AA60D47185CD}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="12" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1670,7 +1747,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6880828A-3410-E644-A3C4-2294177CC41C}" type="pres">
-      <dgm:prSet presAssocID="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1681,7 +1758,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC59D9E9-9066-744D-ABF3-DD21BDB11BAD}" type="pres">
-      <dgm:prSet presAssocID="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1696,7 +1773,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{22159CD9-4EC1-E544-98E6-9AD9F99F03AF}" type="pres">
-      <dgm:prSet presAssocID="{30FE5FD2-03E7-C142-AA91-76709434DD90}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="11" custScaleX="96260" custScaleY="75821">
+      <dgm:prSet presAssocID="{30FE5FD2-03E7-C142-AA91-76709434DD90}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="12" custScaleX="96260" custScaleY="75821">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1715,7 +1792,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9214EDCC-7637-FA4F-A663-9416C90A1781}" type="pres">
-      <dgm:prSet presAssocID="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1726,7 +1803,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{884F4C54-6432-7B49-A9D9-4EA1E6971C11}" type="pres">
-      <dgm:prSet presAssocID="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1741,7 +1818,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B895C344-133F-4340-80A0-685E27E999D6}" type="pres">
-      <dgm:prSet presAssocID="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1760,7 +1837,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2DDF5D0C-86F9-B544-9080-3A948622D7BA}" type="pres">
-      <dgm:prSet presAssocID="{32706739-2A84-3348-A1C6-7714D3321367}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{32706739-2A84-3348-A1C6-7714D3321367}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1771,7 +1848,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3BA8300A-5700-1545-903D-46F79D3A219F}" type="pres">
-      <dgm:prSet presAssocID="{32706739-2A84-3348-A1C6-7714D3321367}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{32706739-2A84-3348-A1C6-7714D3321367}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1786,7 +1863,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E1F7CC9B-4F56-D943-B145-A3DE9F98BD43}" type="pres">
-      <dgm:prSet presAssocID="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="12" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1805,7 +1882,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F07A7E6F-36EA-9743-8C2B-402848A63CFF}" type="pres">
-      <dgm:prSet presAssocID="{6ECFB139-B56B-7E4E-BF1F-7CC77B2204F1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{6ECFB139-B56B-7E4E-BF1F-7CC77B2204F1}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1816,7 +1893,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B0B31E67-0F2F-244A-B75D-8DB3A26F446A}" type="pres">
-      <dgm:prSet presAssocID="{6ECFB139-B56B-7E4E-BF1F-7CC77B2204F1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{6ECFB139-B56B-7E4E-BF1F-7CC77B2204F1}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1831,7 +1908,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D0686948-65B5-CE4B-99C1-9EB45F62AC5F}" type="pres">
-      <dgm:prSet presAssocID="{CBD00C11-7705-4B46-A507-504E11D7B2C4}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{CBD00C11-7705-4B46-A507-504E11D7B2C4}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="12" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1850,7 +1927,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{31147925-D93C-6548-8EDD-2EE2D7639E17}" type="pres">
-      <dgm:prSet presAssocID="{07E1DC84-8672-934D-9FA8-8145886FABAC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{07E1DC84-8672-934D-9FA8-8145886FABAC}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1861,7 +1938,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C3A52499-1866-FF47-AA0E-58DA1BFCE11E}" type="pres">
-      <dgm:prSet presAssocID="{07E1DC84-8672-934D-9FA8-8145886FABAC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{07E1DC84-8672-934D-9FA8-8145886FABAC}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1876,7 +1953,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5535553B-E6DF-DC40-BCE3-AA88C7E8EDAF}" type="pres">
-      <dgm:prSet presAssocID="{926B028B-C02D-2C41-A736-4D3D57E074CC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{926B028B-C02D-2C41-A736-4D3D57E074CC}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1895,7 +1972,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{36D788C9-8DB5-D74D-BDE6-649BA5A5D5B8}" type="pres">
-      <dgm:prSet presAssocID="{B5D4559E-723E-D842-BB45-358E2F203970}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{B5D4559E-723E-D842-BB45-358E2F203970}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1906,7 +1983,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D4F4059E-9072-DD44-9070-1FDB3E4A368D}" type="pres">
-      <dgm:prSet presAssocID="{B5D4559E-723E-D842-BB45-358E2F203970}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{B5D4559E-723E-D842-BB45-358E2F203970}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1921,7 +1998,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C6AA8951-971D-8D46-A6B7-A3287247CC64}" type="pres">
-      <dgm:prSet presAssocID="{C762D9DC-C267-9446-B1CC-A95E3114C015}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="11" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{C762D9DC-C267-9446-B1CC-A95E3114C015}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="12" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1940,7 +2017,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{199187A2-043D-8540-A3D5-F92622E95501}" type="pres">
-      <dgm:prSet presAssocID="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1951,7 +2028,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{968DCEBD-CF0C-D74A-A666-31158F65E182}" type="pres">
-      <dgm:prSet presAssocID="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1966,7 +2043,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2A221514-4A03-4B45-B5AF-749FB8232375}" type="pres">
-      <dgm:prSet presAssocID="{A8AC0743-8DDE-2742-BA27-AC8B8ED11478}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
+      <dgm:prSet presAssocID="{A8AC0743-8DDE-2742-BA27-AC8B8ED11478}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="12" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1985,7 +2062,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{622176D4-0F63-4441-9655-4E39F2D4E064}" type="pres">
-      <dgm:prSet presAssocID="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1996,7 +2073,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9CBE3C3D-6969-BA40-9AFD-12D8A930CA33}" type="pres">
-      <dgm:prSet presAssocID="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2011,7 +2088,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F9CE8C8D-1F59-A546-857D-5DCA77549F01}" type="pres">
-      <dgm:prSet presAssocID="{652DE9CE-379E-5542-8267-C153E850CFF5}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{652DE9CE-379E-5542-8267-C153E850CFF5}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2030,7 +2107,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EC671750-0F9F-144E-B9B1-0F71732606F0}" type="pres">
-      <dgm:prSet presAssocID="{F97D5CCC-FB1C-BD4D-8FC0-8444F262955E}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{F97D5CCC-FB1C-BD4D-8FC0-8444F262955E}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2041,7 +2118,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{56D4E8B8-277E-6C4C-B5C0-2B77C4634751}" type="pres">
-      <dgm:prSet presAssocID="{F97D5CCC-FB1C-BD4D-8FC0-8444F262955E}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{F97D5CCC-FB1C-BD4D-8FC0-8444F262955E}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2056,7 +2133,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DFF22F0D-7EB3-DB46-B99E-239BB764C2DC}" type="pres">
-      <dgm:prSet presAssocID="{6DC6F20A-841D-E944-B9FD-E1D140F60C2C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="11" custScaleX="96260" custScaleY="75837">
+      <dgm:prSet presAssocID="{6DC6F20A-841D-E944-B9FD-E1D140F60C2C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="12" custScaleX="96260" custScaleY="75837">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2075,7 +2152,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9FA40A36-B6C2-5140-97C1-947018A2B70F}" type="pres">
-      <dgm:prSet presAssocID="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2086,7 +2163,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5E4F97FA-974D-8845-A8FE-60389B8C4834}" type="pres">
-      <dgm:prSet presAssocID="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2101,7 +2178,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0963A656-C5DC-AB41-8DEE-D65A14EA566F}" type="pres">
-      <dgm:prSet presAssocID="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
+      <dgm:prSet presAssocID="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="12" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2120,7 +2197,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F2B8E9EC-9E8D-EF4F-8069-8CF8FD8833B2}" type="pres">
-      <dgm:prSet presAssocID="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2131,7 +2208,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1A86F6FD-7823-CA48-AB5A-F31345841067}" type="pres">
-      <dgm:prSet presAssocID="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2146,7 +2223,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{53EE5430-A405-0C45-8C3D-56B9B7B4C5EE}" type="pres">
-      <dgm:prSet presAssocID="{EB608E93-0479-2148-BCC1-5BA22B50A826}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5" custScaleX="96260" custScaleY="64516">
+      <dgm:prSet presAssocID="{EB608E93-0479-2148-BCC1-5BA22B50A826}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6" custScaleX="96260" custScaleY="64516">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2165,7 +2242,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF5C0BC9-1C55-6D44-9740-9A1957FD4485}" type="pres">
-      <dgm:prSet presAssocID="{8F42AAD0-AA72-224D-89F6-60847A76B1D5}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{8F42AAD0-AA72-224D-89F6-60847A76B1D5}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2176,7 +2253,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C1AA1D1D-23B3-5348-98C0-620CC9C417E7}" type="pres">
-      <dgm:prSet presAssocID="{8F42AAD0-AA72-224D-89F6-60847A76B1D5}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{8F42AAD0-AA72-224D-89F6-60847A76B1D5}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2191,7 +2268,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8F0E1068-96D7-094C-A746-F91F87169C20}" type="pres">
-      <dgm:prSet presAssocID="{8A21709E-6FE0-0845-AA28-2B8FCDAA188E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="11" custScaleX="96260" custScaleY="64461">
+      <dgm:prSet presAssocID="{8A21709E-6FE0-0845-AA28-2B8FCDAA188E}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="12" custScaleX="96260" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2210,7 +2287,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{48799966-5966-574A-BC3A-266F4C6BAF17}" type="pres">
-      <dgm:prSet presAssocID="{0FCF08F7-3C86-6A4A-965A-08D4C71F2C83}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{0FCF08F7-3C86-6A4A-965A-08D4C71F2C83}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2221,7 +2298,7 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9C06130D-D3CF-6C4B-9249-8865DD724342}" type="pres">
-      <dgm:prSet presAssocID="{0FCF08F7-3C86-6A4A-965A-08D4C71F2C83}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:prSet presAssocID="{0FCF08F7-3C86-6A4A-965A-08D4C71F2C83}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="12"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -2236,7 +2313,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8DA6C1C2-E0BE-DE44-8DDE-6C55EBB1BE40}" type="pres">
-      <dgm:prSet presAssocID="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="11" custScaleX="96680" custScaleY="64461">
+      <dgm:prSet presAssocID="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="12" custScaleX="96680" custScaleY="64461">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2254,16 +2331,80 @@
       <dgm:prSet presAssocID="{7C549909-39C6-634F-AD6F-5BC74E5D5A0B}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{97B12770-0CB2-8E42-8C46-B78B590DF264}" type="pres">
+      <dgm:prSet presAssocID="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{00B61C1B-527F-1543-A790-0CFBF4D3F731}" type="pres">
+      <dgm:prSet presAssocID="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{34FCEC4B-4918-9845-9BCD-DD0043BF018A}" type="pres">
+      <dgm:prSet presAssocID="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F7F80611-76E9-3349-B5FD-8B3C454AB962}" type="pres">
+      <dgm:prSet presAssocID="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6" custScaleX="95383" custScaleY="65673">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3637CC44-3E8D-D24A-84EB-0CAAC39785BC}" type="pres">
+      <dgm:prSet presAssocID="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{506AF29A-83AC-E248-9AF9-8FE4F159AC25}" type="pres">
+      <dgm:prSet presAssocID="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E1BAFA1-55CF-E545-B2FA-A1A5FADDEEF6}" type="pres">
+      <dgm:prSet presAssocID="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="12"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF5FCDFB-376D-E649-BC50-B91A436B05E0}" type="pres">
+      <dgm:prSet presAssocID="{103D1626-783F-FD45-A7BB-A522A3FA7C26}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A3AB58D9-B03F-F948-B047-A477D353B990}" type="pres">
+      <dgm:prSet presAssocID="{103D1626-783F-FD45-A7BB-A522A3FA7C26}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="12" custScaleX="94097" custScaleY="76401">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C3FEBB1-02E2-F34E-907C-1A32E3A8EC0D}" type="pres">
+      <dgm:prSet presAssocID="{103D1626-783F-FD45-A7BB-A522A3FA7C26}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{0842D17A-7BC5-3E42-9A18-78841F89482E}" type="presOf" srcId="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" destId="{02E0FECA-2589-C94E-8421-1373276E6CD0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7CCF928C-C448-5C41-9E7B-F6CE4E2469FC}" type="presOf" srcId="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" destId="{199187A2-043D-8540-A3D5-F92622E95501}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0E82623-549A-FC44-865F-A392C7A2617E}" srcId="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" destId="{103D1626-783F-FD45-A7BB-A522A3FA7C26}" srcOrd="0" destOrd="0" parTransId="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" sibTransId="{AE895D96-157A-E242-A548-2A14F7F0F078}"/>
     <dgm:cxn modelId="{8504FA2D-325D-DE44-941A-7A6A619716F1}" type="presOf" srcId="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" destId="{DC59D9E9-9066-744D-ABF3-DD21BDB11BAD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C48E80A6-204E-F64C-B83A-DABE6BC85388}" type="presOf" srcId="{B5D4559E-723E-D842-BB45-358E2F203970}" destId="{36D788C9-8DB5-D74D-BDE6-649BA5A5D5B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E9A262E1-9258-F34E-AF0A-BB44800A9F2A}" type="presOf" srcId="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" destId="{884F4C54-6432-7B49-A9D9-4EA1E6971C11}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DB9FD4CF-5961-1949-AFD8-8EA2D2C8F04E}" type="presOf" srcId="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" destId="{6089D488-F8D0-3F43-80B5-219C7DCFB589}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8D6A5108-AE7F-7346-A86E-89752E0F0B26}" type="presOf" srcId="{63E4C9E5-BCE9-274B-B154-D1722539B787}" destId="{EC1947AE-4E19-6545-8360-1E46FEF87CE8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6B1E734B-9BC3-F742-8D7C-342E0AA30C94}" type="presOf" srcId="{6ECFB139-B56B-7E4E-BF1F-7CC77B2204F1}" destId="{B0B31E67-0F2F-244A-B75D-8DB3A26F446A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4913CF94-A67F-B94F-BE8A-894CF992B437}" type="presOf" srcId="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" destId="{97B12770-0CB2-8E42-8C46-B78B590DF264}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{15CAB5AF-50D8-E947-A0A6-799119EAD4B6}" type="presOf" srcId="{EB608E93-0479-2148-BCC1-5BA22B50A826}" destId="{53EE5430-A405-0C45-8C3D-56B9B7B4C5EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{98EC3ADC-3C44-A241-A2BA-757D5051620F}" srcId="{6C230476-3D0D-474F-94E9-0E58DDAF8AF5}" destId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" srcOrd="0" destOrd="0" parTransId="{510299DD-46A5-AD46-B5A3-222A2EBA43D4}" sibTransId="{62262623-F525-B744-92D2-D50727F4632C}"/>
     <dgm:cxn modelId="{6C32CD3E-0623-0C46-9300-92A6FD09DA76}" type="presOf" srcId="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" destId="{9CBE3C3D-6969-BA40-9AFD-12D8A930CA33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2283,7 +2424,9 @@
     <dgm:cxn modelId="{F4AA6F85-E36F-FE49-969C-678D11551B40}" type="presOf" srcId="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" destId="{6880828A-3410-E644-A3C4-2294177CC41C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{42118BAA-A4CE-4A44-B75C-CAC962EBE031}" type="presOf" srcId="{0FCF08F7-3C86-6A4A-965A-08D4C71F2C83}" destId="{9C06130D-D3CF-6C4B-9249-8865DD724342}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{02096372-466E-3B4D-BB1B-7BF2A5FDD34E}" type="presOf" srcId="{DA49E6E9-CDF9-794C-AEAB-4FBD68A57F1A}" destId="{968DCEBD-CF0C-D74A-A666-31158F65E182}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2ABD627C-6B7F-454F-8E5A-9B4DA42E369F}" type="presOf" srcId="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" destId="{00B61C1B-527F-1543-A790-0CFBF4D3F731}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{51789F79-19A3-D040-97A8-38BBBB28A693}" type="presOf" srcId="{CBD00C11-7705-4B46-A507-504E11D7B2C4}" destId="{D0686948-65B5-CE4B-99C1-9EB45F62AC5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8C9C2AED-4727-3146-9A50-A77D78A7927E}" type="presOf" srcId="{103D1626-783F-FD45-A7BB-A522A3FA7C26}" destId="{A3AB58D9-B03F-F948-B047-A477D353B990}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{918E5549-A3A6-994D-A717-FDA1C90DF9D8}" type="presOf" srcId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" destId="{61D69160-A7CD-9049-954F-FA5CBF774AED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C9C4C572-8EC4-8F4D-A14F-7DBE282FDF1F}" srcId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" destId="{926B028B-C02D-2C41-A736-4D3D57E074CC}" srcOrd="2" destOrd="0" parTransId="{07E1DC84-8672-934D-9FA8-8145886FABAC}" sibTransId="{E7CFD411-298A-BB48-823A-B37F79113039}"/>
     <dgm:cxn modelId="{B1C19410-5F7E-DE48-B981-2D10E0AF9C36}" type="presOf" srcId="{32706739-2A84-3348-A1C6-7714D3321367}" destId="{2DDF5D0C-86F9-B544-9080-3A948622D7BA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2292,6 +2435,7 @@
     <dgm:cxn modelId="{87470EF9-A022-C64A-9318-FDE17A6C353D}" type="presOf" srcId="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" destId="{2680328F-7469-384B-A713-47DAA1730724}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C938381E-9E55-834D-9561-0C0E800F5F2F}" type="presOf" srcId="{BC4BC998-E1F0-5B45-A719-663711F9FB23}" destId="{9214EDCC-7637-FA4F-A663-9416C90A1781}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CA90F7DE-0D6A-1C40-B116-F6D8B2A9B6D7}" type="presOf" srcId="{32706739-2A84-3348-A1C6-7714D3321367}" destId="{3BA8300A-5700-1545-903D-46F79D3A219F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{718190EE-03A4-F84E-BEF4-2C3393422CFC}" type="presOf" srcId="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" destId="{506AF29A-83AC-E248-9AF9-8FE4F159AC25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{935CFD64-B563-C14A-8843-98A8FBBCCE52}" srcId="{926B028B-C02D-2C41-A736-4D3D57E074CC}" destId="{C762D9DC-C267-9446-B1CC-A95E3114C015}" srcOrd="0" destOrd="0" parTransId="{B5D4559E-723E-D842-BB45-358E2F203970}" sibTransId="{DA64E6F3-5664-5A48-B5C2-B7239FD965F9}"/>
     <dgm:cxn modelId="{520C681A-2D84-E249-B231-5C523BDFFE41}" type="presOf" srcId="{63E4C9E5-BCE9-274B-B154-D1722539B787}" destId="{E51D49A7-6AFC-F04F-9B53-612EDC5C173D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CC63E528-85F1-9E4E-9937-686EEF85ED15}" type="presOf" srcId="{5E402F45-6CF9-7D49-9393-47131AFD7CE6}" destId="{0963A656-C5DC-AB41-8DEE-D65A14EA566F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2300,16 +2444,19 @@
     <dgm:cxn modelId="{7DB2C1AF-3B5B-7C43-854C-BF3A2DB639BA}" srcId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" destId="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" srcOrd="0" destOrd="0" parTransId="{66816B50-209E-8A44-99FF-FCA0FE6010CF}" sibTransId="{003A5410-B948-1B4C-AECA-2D523EED1A72}"/>
     <dgm:cxn modelId="{B4C93D8A-6FF3-A145-BEC7-BB09451B2D76}" type="presOf" srcId="{B5D4559E-723E-D842-BB45-358E2F203970}" destId="{D4F4059E-9072-DD44-9070-1FDB3E4A368D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{37FEB892-300D-7341-A4A0-8D68951AFCA4}" type="presOf" srcId="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" destId="{B895C344-133F-4340-80A0-685E27E999D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{67057FA6-C219-ED47-9753-3CDCFC20F2BB}" type="presOf" srcId="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" destId="{F7F80611-76E9-3349-B5FD-8B3C454AB962}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{5CF93935-BF7C-4E42-9593-80B18924A033}" type="presOf" srcId="{36BBC7EB-D363-3B48-8496-AA60D47185CD}" destId="{E51D9155-7752-9D41-957A-949CC75EB761}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{9F4AB37F-F255-9446-B164-01A260193726}" srcId="{C1B123D7-ACAF-5649-AFFC-155C51CC2222}" destId="{D9CE6A51-53F7-FD4A-A51F-4D8055DFBB15}" srcOrd="0" destOrd="0" parTransId="{32706739-2A84-3348-A1C6-7714D3321367}" sibTransId="{32FF7563-701D-3944-985C-4509B3AE9BA3}"/>
     <dgm:cxn modelId="{AF5DE33B-5FA8-394E-A6EC-B64EA8FE7518}" type="presOf" srcId="{300BDE9E-F0C8-E145-A198-C90D0EF8BD49}" destId="{97838F66-388F-334E-8C48-6883CD119D60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{EB2545D9-C3D5-984A-AB29-63A71ABBF196}" type="presOf" srcId="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" destId="{5E4F97FA-974D-8845-A8FE-60389B8C4834}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5D9A1395-AD14-7C4D-B100-F7C3F1371D17}" srcId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" destId="{99D32C64-53F1-DC4D-BCFA-67CCE8DE2858}" srcOrd="5" destOrd="0" parTransId="{3733269B-FD31-BC4F-AD31-1C456E864C3C}" sibTransId="{3E66CAC7-00AD-0048-AE3F-048D6F288EF1}"/>
     <dgm:cxn modelId="{A849D7BD-F448-244F-A6AB-ACC78C0AE46A}" type="presOf" srcId="{07E1DC84-8672-934D-9FA8-8145886FABAC}" destId="{C3A52499-1866-FF47-AA0E-58DA1BFCE11E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{73CE09CE-9DF0-1045-9D52-E215F0D0A255}" type="presOf" srcId="{F97D5CCC-FB1C-BD4D-8FC0-8444F262955E}" destId="{56D4E8B8-277E-6C4C-B5C0-2B77C4634751}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7D6DE11C-6A19-3A4D-BB4D-CAA7B0ABA0DA}" srcId="{1B3C97F0-1B5E-DE4B-BD53-04B0F98FD209}" destId="{30FE5FD2-03E7-C142-AA91-76709434DD90}" srcOrd="2" destOrd="0" parTransId="{DC9CCC13-49B8-F64C-B46E-A357D3F309D5}" sibTransId="{749523E1-DB0A-7740-9A56-5B4F05E26FCB}"/>
     <dgm:cxn modelId="{96FE673F-275C-BE4A-95F9-515D1FEAE953}" type="presOf" srcId="{551B3FB5-3F7C-9046-B05E-7E0316CCFFDC}" destId="{9FA40A36-B6C2-5140-97C1-947018A2B70F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F3860F23-2EEC-4049-8A2F-E291C5D858DB}" type="presOf" srcId="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" destId="{F2B8E9EC-9E8D-EF4F-8069-8CF8FD8833B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{82AD8648-0AD1-9348-B25F-BCB44C3A1A51}" type="presOf" srcId="{FA9F03C1-DE3A-9849-9BB9-A7264514AC98}" destId="{622176D4-0F63-4441-9655-4E39F2D4E064}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{451F2B79-92B4-2848-88FB-2A48C598FBFF}" type="presOf" srcId="{8CD202A6-3C0B-C94E-8828-CAC651C53566}" destId="{7E1BAFA1-55CF-E545-B2FA-A1A5FADDEEF6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7AC4BC3B-9927-CD43-BF0F-2F5812BA7005}" type="presOf" srcId="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" destId="{1A86F6FD-7823-CA48-AB5A-F31345841067}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AF1FA0F6-F7EA-E845-B2E3-0E236AA66660}" type="presOf" srcId="{30FE5FD2-03E7-C142-AA91-76709434DD90}" destId="{22159CD9-4EC1-E544-98E6-9AD9F99F03AF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{507C37D9-DF70-C049-AB45-6D6194C6EDD1}" srcId="{3D5AE65B-9194-A04D-98AC-695DC8D2BA16}" destId="{EB608E93-0479-2148-BCC1-5BA22B50A826}" srcOrd="4" destOrd="0" parTransId="{DE6250AC-E2C3-EA4C-90F4-F144D5C45412}" sibTransId="{873FE768-EBDB-5444-A928-15F6A44CCEAB}"/>
@@ -2406,6 +2553,16 @@
     <dgm:cxn modelId="{0572E0D3-D7E8-784E-AAF3-1793BAE7EA04}" type="presParOf" srcId="{0B0444E0-1C9D-7944-896B-7915BA26BAB2}" destId="{06C7D346-37EA-A348-AFEB-EBF697672BFC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{EF551709-0343-7A4C-A37E-E6C177BC5B13}" type="presParOf" srcId="{06C7D346-37EA-A348-AFEB-EBF697672BFC}" destId="{8DA6C1C2-E0BE-DE44-8DDE-6C55EBB1BE40}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DB77A817-3FCC-7E4A-B37F-702CC9F840C2}" type="presParOf" srcId="{06C7D346-37EA-A348-AFEB-EBF697672BFC}" destId="{05EF386D-5FC3-074D-B632-6D765D3A5770}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DAC637D4-DCAE-B74A-8FE7-21DC9196B75D}" type="presParOf" srcId="{B1B8291F-AF33-5D48-99F4-EFCEA4F477B2}" destId="{97B12770-0CB2-8E42-8C46-B78B590DF264}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B1914140-49A9-8A4C-AC19-569D15AAB8C9}" type="presParOf" srcId="{97B12770-0CB2-8E42-8C46-B78B590DF264}" destId="{00B61C1B-527F-1543-A790-0CFBF4D3F731}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D210503B-60D4-694E-B188-FBC39909FDC3}" type="presParOf" srcId="{B1B8291F-AF33-5D48-99F4-EFCEA4F477B2}" destId="{34FCEC4B-4918-9845-9BCD-DD0043BF018A}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8B76FC91-6A8F-2E4F-832E-901C96F9FB56}" type="presParOf" srcId="{34FCEC4B-4918-9845-9BCD-DD0043BF018A}" destId="{F7F80611-76E9-3349-B5FD-8B3C454AB962}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9531F415-4BAA-284C-A59B-BA6CB53B7C46}" type="presParOf" srcId="{34FCEC4B-4918-9845-9BCD-DD0043BF018A}" destId="{3637CC44-3E8D-D24A-84EB-0CAAC39785BC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7DE79149-F9D5-7A41-8DA1-2AF06CA1A779}" type="presParOf" srcId="{3637CC44-3E8D-D24A-84EB-0CAAC39785BC}" destId="{506AF29A-83AC-E248-9AF9-8FE4F159AC25}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{40E32342-13EA-AD4B-9335-5674E4A56CAE}" type="presParOf" srcId="{506AF29A-83AC-E248-9AF9-8FE4F159AC25}" destId="{7E1BAFA1-55CF-E545-B2FA-A1A5FADDEEF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4A8B5CE7-E70F-3A46-99CD-A6EE19DC2B1F}" type="presParOf" srcId="{3637CC44-3E8D-D24A-84EB-0CAAC39785BC}" destId="{EF5FCDFB-376D-E649-BC50-B91A436B05E0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9912BB07-2E00-F14D-8DD4-848ABA3179B0}" type="presParOf" srcId="{EF5FCDFB-376D-E649-BC50-B91A436B05E0}" destId="{A3AB58D9-B03F-F948-B047-A477D353B990}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CAEDBED2-9BA4-4844-BB33-9D9687C0017F}" type="presParOf" srcId="{EF5FCDFB-376D-E649-BC50-B91A436B05E0}" destId="{5C3FEBB1-02E2-F34E-907C-1A32E3A8EC0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -2432,7 +2589,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1369" y="4697378"/>
+          <a:off x="1369" y="4860545"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2516,7 +2673,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="19327" y="4715336"/>
+        <a:off x="19327" y="4878503"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2526,9 +2683,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16980372">
-          <a:off x="522026" y="3349279"/>
-          <a:ext cx="3378114" cy="17863"/>
+        <a:xfrm rot="16863692">
+          <a:off x="229811" y="3213709"/>
+          <a:ext cx="3962542" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2542,7 +2699,7 @@
                 <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3378114" y="8931"/>
+                <a:pt x="3962542" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2580,7 +2737,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2591,12 +2748,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2126630" y="3273758"/>
-        <a:ext cx="168905" cy="168905"/>
+        <a:off x="2112019" y="3123577"/>
+        <a:ext cx="198127" cy="198127"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{02E0FECA-2589-C94E-8421-1373276E6CD0}">
@@ -2606,7 +2763,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591216" y="1405927"/>
+          <a:off x="2591216" y="971620"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2691,7 +2848,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2609174" y="1423885"/>
+        <a:off x="2609174" y="989578"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2702,7 +2859,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="18792460">
-          <a:off x="4245703" y="1298861"/>
+          <a:off x="4245703" y="864554"/>
           <a:ext cx="1110453" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -2770,7 +2927,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4773168" y="1280032"/>
+        <a:off x="4773168" y="845725"/>
         <a:ext cx="55522" cy="55522"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2781,7 +2938,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="596543"/>
+          <a:off x="5181063" y="162236"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2866,7 +3023,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199021" y="614501"/>
+        <a:off x="5199021" y="180194"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2877,7 +3034,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="21357505">
-          <a:off x="4419849" y="1676694"/>
+          <a:off x="4419849" y="1242388"/>
           <a:ext cx="762161" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -2945,7 +3102,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4781875" y="1666572"/>
+        <a:off x="4781875" y="1232266"/>
         <a:ext cx="38108" cy="38108"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2956,7 +3113,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="1352209"/>
+          <a:off x="5181063" y="917902"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3041,7 +3198,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199021" y="1370167"/>
+        <a:off x="5199021" y="935860"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3052,7 +3209,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2689569">
-          <a:off x="4264964" y="2081387"/>
+          <a:off x="4264964" y="1647080"/>
           <a:ext cx="1071931" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -3120,7 +3277,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4774131" y="2063520"/>
+        <a:off x="4774131" y="1629213"/>
         <a:ext cx="53596" cy="53596"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3131,7 +3288,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="2107876"/>
+          <a:off x="5181063" y="1673569"/>
           <a:ext cx="1829580" cy="720551"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3200,7 +3357,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5202167" y="2128980"/>
+        <a:off x="5202167" y="1694673"/>
         <a:ext cx="1787372" cy="678343"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3210,9 +3367,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17964750">
-          <a:off x="1437029" y="4320721"/>
-          <a:ext cx="1548107" cy="17863"/>
+        <a:xfrm rot="17480355">
+          <a:off x="1166444" y="4185151"/>
+          <a:ext cx="2089277" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3226,7 +3383,7 @@
                 <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1548107" y="8931"/>
+                <a:pt x="2089277" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3264,7 +3421,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3275,12 +3432,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="700" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2172380" y="4290950"/>
-        <a:ext cx="77405" cy="77405"/>
+        <a:off x="2158851" y="4141851"/>
+        <a:ext cx="104463" cy="104463"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B895C344-133F-4340-80A0-685E27E999D6}">
@@ -3290,7 +3447,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591216" y="3348811"/>
+          <a:off x="2591216" y="2914504"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3359,7 +3516,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2609174" y="3366769"/>
+        <a:off x="2609174" y="2932462"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3370,7 +3527,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="20014426">
-          <a:off x="4376441" y="3457521"/>
+          <a:off x="4376441" y="3023214"/>
           <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -3438,7 +3595,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779705" y="3445228"/>
+        <a:off x="4779705" y="3010921"/>
         <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3449,7 +3606,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="2970977"/>
+          <a:off x="5181063" y="2536671"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3513,7 +3670,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199021" y="2988935"/>
+        <a:off x="5199021" y="2554629"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3524,7 +3681,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="1585574">
-          <a:off x="4376441" y="3835354"/>
+          <a:off x="4376441" y="3401047"/>
           <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -3592,7 +3749,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779705" y="3823061"/>
+        <a:off x="4779705" y="3388754"/>
         <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3603,7 +3760,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="3726644"/>
+          <a:off x="5181063" y="3292337"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3672,7 +3829,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199021" y="3744602"/>
+        <a:off x="5199021" y="3310295"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3682,9 +3839,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="723914">
-          <a:off x="1822363" y="5076257"/>
-          <a:ext cx="777439" cy="17863"/>
+        <a:xfrm rot="19813495">
+          <a:off x="1773132" y="4940687"/>
+          <a:ext cx="875901" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3698,7 +3855,7 @@
                 <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="777439" y="8931"/>
+                <a:pt x="875901" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3751,8 +3908,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2191647" y="5065753"/>
-        <a:ext cx="38871" cy="38871"/>
+        <a:off x="2189185" y="4927721"/>
+        <a:ext cx="43795" cy="43795"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5535553B-E6DF-DC40-BCE3-AA88C7E8EDAF}">
@@ -3762,7 +3919,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591216" y="4859882"/>
+          <a:off x="2591216" y="4425576"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3846,7 +4003,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2609174" y="4877840"/>
+        <a:off x="2609174" y="4443534"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3857,7 +4014,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="20015374">
-          <a:off x="4376499" y="4968723"/>
+          <a:off x="4376499" y="4534416"/>
           <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -3925,7 +4082,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779708" y="4956433"/>
+        <a:off x="4779708" y="4522126"/>
         <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3936,7 +4093,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="4482311"/>
+          <a:off x="5181063" y="4048004"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4020,7 +4177,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199021" y="4500269"/>
+        <a:off x="5199021" y="4065962"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4031,7 +4188,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="1585574">
-          <a:off x="4376441" y="5346426"/>
+          <a:off x="4376441" y="4912119"/>
           <a:ext cx="848977" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -4099,7 +4256,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779705" y="5334133"/>
+        <a:off x="4779705" y="4899826"/>
         <a:ext cx="42448" cy="42448"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4110,7 +4267,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="5237977"/>
+          <a:off x="5181063" y="4803670"/>
           <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4174,7 +4331,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199005" y="5255919"/>
+        <a:off x="5199005" y="4821612"/>
         <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4184,9 +4341,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3974466">
-          <a:off x="1267564" y="5858559"/>
-          <a:ext cx="1887036" cy="17863"/>
+        <a:xfrm rot="3363520">
+          <a:off x="1530260" y="5722989"/>
+          <a:ext cx="1361645" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4200,7 +4357,7 @@
                 <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1887036" y="8931"/>
+                <a:pt x="1361645" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4238,7 +4395,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4249,12 +4406,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="600" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2163907" y="5820315"/>
-        <a:ext cx="94351" cy="94351"/>
+        <a:off x="2177042" y="5697880"/>
+        <a:ext cx="68082" cy="68082"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F9CE8C8D-1F59-A546-857D-5DCA77549F01}">
@@ -4264,7 +4421,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591216" y="6424486"/>
+          <a:off x="2591216" y="5990180"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4348,7 +4505,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2609174" y="6442444"/>
+        <a:off x="2609174" y="6008138"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4359,7 +4516,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="20015374">
-          <a:off x="4376499" y="6533327"/>
+          <a:off x="4376499" y="6099020"/>
           <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -4427,7 +4584,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779708" y="6521037"/>
+        <a:off x="4779708" y="6086730"/>
         <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4438,7 +4595,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="5993121"/>
+          <a:off x="5181063" y="5558814"/>
           <a:ext cx="1829580" cy="720703"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4522,7 +4679,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5202172" y="6014230"/>
+        <a:off x="5202172" y="5579923"/>
         <a:ext cx="1787362" cy="678485"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4533,7 +4690,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="1775096">
-          <a:off x="4363806" y="6937926"/>
+          <a:off x="4363806" y="6503620"/>
           <a:ext cx="874246" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -4601,7 +4758,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779073" y="6925002"/>
+        <a:off x="4779073" y="6490695"/>
         <a:ext cx="43712" cy="43712"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4612,7 +4769,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="6856375"/>
+          <a:off x="5181063" y="6422068"/>
           <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4696,7 +4853,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199005" y="6874317"/>
+        <a:off x="5199005" y="6440010"/>
         <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4706,9 +4863,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4619628">
-          <a:off x="522026" y="6640730"/>
-          <a:ext cx="3378114" cy="17863"/>
+        <a:xfrm rot="4454425">
+          <a:off x="811483" y="6505160"/>
+          <a:ext cx="2799199" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4722,7 +4879,7 @@
                 <a:pt x="0" y="8931"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3378114" y="8931"/>
+                <a:pt x="2799199" y="8931"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4760,7 +4917,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4771,12 +4928,12 @@
               <a:spcPct val="35000"/>
             </a:spcAft>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR" sz="1200" kern="1200"/>
+          <a:endParaRPr lang="fr-FR" sz="1000" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2126630" y="6565209"/>
-        <a:ext cx="168905" cy="168905"/>
+        <a:off x="2141103" y="6444112"/>
+        <a:ext cx="139959" cy="139959"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53EE5430-A405-0C45-8C3D-56B9B7B4C5EE}">
@@ -4786,7 +4943,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2591216" y="7988829"/>
+          <a:off x="2591216" y="7554522"/>
           <a:ext cx="1829580" cy="613116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4870,7 +5027,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2609174" y="8006787"/>
+        <a:off x="2609174" y="7572480"/>
         <a:ext cx="1793664" cy="577200"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4881,7 +5038,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="20015374">
-          <a:off x="4376499" y="8097670"/>
+          <a:off x="4376499" y="7663363"/>
           <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -4949,7 +5106,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779708" y="8085380"/>
+        <a:off x="4779708" y="7651073"/>
         <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4960,7 +5117,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="7611518"/>
+          <a:off x="5181063" y="7177212"/>
           <a:ext cx="1829580" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5044,7 +5201,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199005" y="7629460"/>
+        <a:off x="5199005" y="7195154"/>
         <a:ext cx="1793696" cy="576709"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5055,7 +5212,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="1584626">
-          <a:off x="4376499" y="8475241"/>
+          <a:off x="4376499" y="8040935"/>
           <a:ext cx="848861" cy="17863"/>
         </a:xfrm>
         <a:custGeom>
@@ -5123,7 +5280,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4779708" y="8462952"/>
+        <a:off x="4779708" y="8028645"/>
         <a:ext cx="42443" cy="42443"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5134,7 +5291,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5181063" y="8366662"/>
+          <a:off x="5181063" y="7932356"/>
           <a:ext cx="1837563" cy="612593"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5218,8 +5375,361 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5199005" y="8384604"/>
+        <a:off x="5199005" y="7950298"/>
         <a:ext cx="1801679" cy="576709"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{97B12770-0CB2-8E42-8C46-B78B590DF264}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4735391">
+          <a:off x="232509" y="7099886"/>
+          <a:ext cx="3957147" cy="17863"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8931"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3957147" y="8931"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2112154" y="7009889"/>
+        <a:ext cx="197857" cy="197857"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F7F80611-76E9-3349-B5FD-8B3C454AB962}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2591216" y="8738475"/>
+          <a:ext cx="1812911" cy="624111"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
+            <a:t>FP6 : Rendre l'IHM ergonomique</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2609496" y="8756755"/>
+        <a:ext cx="1776351" cy="587551"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{506AF29A-83AC-E248-9AF9-8FE4F159AC25}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4404128" y="9041599"/>
+          <a:ext cx="760266" cy="17863"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8931"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="760266" y="8931"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4765254" y="9031525"/>
+        <a:ext cx="38013" cy="38013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A3AB58D9-B03F-F948-B047-A477D353B990}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5164394" y="8687499"/>
+          <a:ext cx="1788469" cy="726063"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="7620" tIns="7620" rIns="7620" bIns="7620" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
+            <a:t>FP61 : Rendre l'IHM adaptée au contr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
+            <a:t>ôle via le gaze-tracking</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5185660" y="8708765"/>
+        <a:ext cx="1745937" cy="683531"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6939,8 +7449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
